--- a/biology/Zoologie/Batara_rousset/Batara_rousset.xlsx
+++ b/biology/Zoologie/Batara_rousset/Batara_rousset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thamnistes anabatinus
 Le Batara rousset (Thamnistes anabatinus) est une espèce de passereaux de la famille des Thamnophilidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Batara rousset mesure environ 15 cm. Il a le dessus brun qui vire au roux sur les ailes et la queue. L'iris est noir surmonté d'un sourcil chamois. Le dessous est olive. Les deux sexes sont semblables mais le mâle possède une tache orangée au centre du dos.
 </t>
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit d'insectes qu'il attrape sur le feuillage des arbres.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve sur l'ensemble de l'Amérique centrale, à l'exception du Salvador mais également en Colombie, au Venezuela, en Équateur, au Pérou et en Bolivie. Il fréquente principalement les bois semi-ouverts.
 </t>
@@ -605,7 +623,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid, peu profond, est installé au haut d'un arbre. La femelle y pond 2 œufs qui seront couvés par les deux parents.
 </t>
@@ -636,7 +656,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sept sous-espèces suivantes (ordre phylogénique) :
 Thamnistes anabatinus anabatinus P.L. Sclater &amp; Salvin, 1860
